--- a/my_rank/创业板指.xlsx
+++ b/my_rank/创业板指.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4652</v>
+        <v>9297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.6995208761122519</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4576</v>
+        <v>8315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7455737704918033</v>
+        <v>0.5874971480720967</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4913</v>
+        <v>8800</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8560655737704918</v>
+        <v>0.6428245493953912</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3879</v>
+        <v>7065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5170491803278688</v>
+        <v>0.4449007529089665</v>
       </c>
       <c r="E5" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4429</v>
+        <v>8677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6973770491803278</v>
+        <v>0.6287930641113393</v>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4960</v>
+        <v>10249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8714754098360655</v>
+        <v>0.8081222906684919</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4628</v>
+        <v>8243</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7626229508196721</v>
+        <v>0.5792835957107004</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4603</v>
+        <v>8183</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7544262295081967</v>
+        <v>0.5724389687428701</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5147</v>
+        <v>10023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9327868852459016</v>
+        <v>0.7823408624229979</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3591</v>
+        <v>4800</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4226229508196721</v>
+        <v>0.1865160848733744</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4910</v>
+        <v>10313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8550819672131148</v>
+        <v>0.8154232261008442</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4904</v>
+        <v>10011</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8531147540983607</v>
+        <v>0.7809719370294319</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -694,13 +694,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4220</v>
+        <v>7251</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6288524590163934</v>
+        <v>0.4661190965092403</v>
       </c>
       <c r="E14" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5293</v>
+        <v>11931</v>
       </c>
       <c r="D15" t="n">
-        <v>0.980655737704918</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3491</v>
+        <v>5469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3898360655737705</v>
+        <v>0.2628336755646817</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4140</v>
+        <v>7573</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6026229508196721</v>
+        <v>0.5028519279032626</v>
       </c>
       <c r="E17" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4842</v>
+        <v>8849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8327868852459016</v>
+        <v>0.648414328085786</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5019</v>
+        <v>10381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8908196721311475</v>
+        <v>0.8231804699977184</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4983</v>
+        <v>10324</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8790163934426229</v>
+        <v>0.8166780743782798</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3968</v>
+        <v>6294</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5462295081967213</v>
+        <v>0.3569472963723477</v>
       </c>
       <c r="E21" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5170</v>
+        <v>11150</v>
       </c>
       <c r="D22" t="n">
-        <v>0.940327868852459</v>
+        <v>0.9109057723020763</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4880</v>
+        <v>9991</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8452459016393442</v>
+        <v>0.7786903947068218</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4349</v>
+        <v>7491</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6711475409836065</v>
+        <v>0.4934976043805613</v>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4677</v>
+        <v>8383</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.595254391968971</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3394</v>
+        <v>5804</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3580327868852459</v>
+        <v>0.3010495094684006</v>
       </c>
       <c r="E26" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4716</v>
+        <v>9352</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7914754098360656</v>
+        <v>0.7057951174994296</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4479</v>
+        <v>8032</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7137704918032787</v>
+        <v>0.5552133242071641</v>
       </c>
       <c r="E28" t="n">
         <v>51</v>
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2302</v>
+        <v>4103</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.107004334930413</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3706</v>
+        <v>6323</v>
       </c>
       <c r="D30" t="n">
-        <v>0.460327868852459</v>
+        <v>0.3602555327401323</v>
       </c>
       <c r="E30" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4570</v>
+        <v>9162</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7436065573770492</v>
+        <v>0.6841204654346338</v>
       </c>
       <c r="E31" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4204</v>
+        <v>7428</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6236065573770492</v>
+        <v>0.4863107460643395</v>
       </c>
       <c r="E32" t="n">
         <v>62</v>
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2540</v>
+        <v>3165</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0780327868852459</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3223</v>
+        <v>5774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3019672131147541</v>
+        <v>0.2976271959844855</v>
       </c>
       <c r="E34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4943</v>
+        <v>10473</v>
       </c>
       <c r="D35" t="n">
-        <v>0.8659016393442623</v>
+        <v>0.8336755646817249</v>
       </c>
       <c r="E35" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4718</v>
+        <v>8612</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7921311475409836</v>
+        <v>0.6213780515628565</v>
       </c>
       <c r="E36" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4994</v>
+        <v>10666</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8826229508196721</v>
+        <v>0.8556924480949122</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4667</v>
+        <v>9377</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7754098360655738</v>
+        <v>0.7086470454026922</v>
       </c>
       <c r="E38" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4576</v>
+        <v>8297</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7455737704918033</v>
+        <v>0.5854437599817477</v>
       </c>
       <c r="E39" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4061</v>
+        <v>6539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5767213114754098</v>
+        <v>0.3848961898243212</v>
       </c>
       <c r="E40" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4349</v>
+        <v>7430</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6711475409836065</v>
+        <v>0.4865389002966005</v>
       </c>
       <c r="E41" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5352</v>
+        <v>11747</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9790098106319872</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4748</v>
+        <v>9525</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8019672131147541</v>
+        <v>0.7255304585900069</v>
       </c>
       <c r="E43" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4783</v>
+        <v>8200</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8134426229508197</v>
+        <v>0.5743782797170888</v>
       </c>
       <c r="E44" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4645</v>
+        <v>9853</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7681967213114754</v>
+        <v>0.7629477526808123</v>
       </c>
       <c r="E45" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3856</v>
+        <v>6636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5095081967213114</v>
+        <v>0.3959616700889801</v>
       </c>
       <c r="E46" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4473</v>
+        <v>7899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7118032786885246</v>
+        <v>0.5400410677618069</v>
       </c>
       <c r="E47" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5345</v>
+        <v>11547</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9977049180327869</v>
+        <v>0.9561943874058864</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4394</v>
+        <v>7635</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6859016393442623</v>
+        <v>0.5099247091033539</v>
       </c>
       <c r="E49" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4895</v>
+        <v>9986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8501639344262295</v>
+        <v>0.7781200091261693</v>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4717</v>
+        <v>8298</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7918032786885246</v>
+        <v>0.5855578370978781</v>
       </c>
       <c r="E51" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4360</v>
+        <v>9159</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6747540983606557</v>
+        <v>0.6837782340862423</v>
       </c>
       <c r="E52" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4182</v>
+        <v>7745</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6163934426229508</v>
+        <v>0.5224731918777094</v>
       </c>
       <c r="E53" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4790</v>
+        <v>9851</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8157377049180328</v>
+        <v>0.7627195984485512</v>
       </c>
       <c r="E54" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5091</v>
+        <v>11064</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9144262295081967</v>
+        <v>0.9010951403148528</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4927</v>
+        <v>10488</v>
       </c>
       <c r="D56" t="n">
-        <v>0.860655737704918</v>
+        <v>0.8353867214236824</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3908</v>
+        <v>7675</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5265573770491804</v>
+        <v>0.514487793748574</v>
       </c>
       <c r="E57" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4693</v>
+        <v>7952</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7839344262295082</v>
+        <v>0.5460871549167237</v>
       </c>
       <c r="E58" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4749</v>
+        <v>8724</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8022950819672131</v>
+        <v>0.634154688569473</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3703</v>
+        <v>6843</v>
       </c>
       <c r="D60" t="n">
-        <v>0.459344262295082</v>
+        <v>0.4195756331279945</v>
       </c>
       <c r="E60" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5243</v>
+        <v>11409</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9642622950819673</v>
+        <v>0.9404517453798767</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4695</v>
+        <v>9323</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7845901639344263</v>
+        <v>0.702486881131645</v>
       </c>
       <c r="E62" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4391</v>
+        <v>7251</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6849180327868852</v>
+        <v>0.4661190965092403</v>
       </c>
       <c r="E63" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3719</v>
+        <v>5871</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4645901639344262</v>
+        <v>0.3086926762491444</v>
       </c>
       <c r="E64" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4073</v>
+        <v>6468</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5806557377049181</v>
+        <v>0.3767967145790554</v>
       </c>
       <c r="E65" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4806</v>
+        <v>9915</v>
       </c>
       <c r="D66" t="n">
-        <v>0.820983606557377</v>
+        <v>0.7700205338809035</v>
       </c>
       <c r="E66" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4969</v>
+        <v>9400</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8744262295081967</v>
+        <v>0.7112708190736938</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3851</v>
+        <v>5727</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5078688524590164</v>
+        <v>0.2922655715263518</v>
       </c>
       <c r="E68" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5114</v>
+        <v>10538</v>
       </c>
       <c r="D69" t="n">
-        <v>0.921967213114754</v>
+        <v>0.8410905772302076</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3905</v>
+        <v>6075</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5255737704918033</v>
+        <v>0.3319644079397673</v>
       </c>
       <c r="E70" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4681</v>
+        <v>9038</v>
       </c>
       <c r="D71" t="n">
-        <v>0.78</v>
+        <v>0.6699749030344513</v>
       </c>
       <c r="E71" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3877</v>
+        <v>6702</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5163934426229508</v>
+        <v>0.4034907597535934</v>
       </c>
       <c r="E72" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4755</v>
+        <v>9338</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8042622950819672</v>
+        <v>0.7041980378736026</v>
       </c>
       <c r="E73" t="n">
         <v>29</v>
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3511</v>
+        <v>5953</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3963934426229508</v>
+        <v>0.3180469997718458</v>
       </c>
       <c r="E74" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3745</v>
+        <v>5564</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4731147540983607</v>
+        <v>0.2736710015970796</v>
       </c>
       <c r="E75" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4018</v>
+        <v>5811</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5626229508196722</v>
+        <v>0.3018480492813141</v>
       </c>
       <c r="E76" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3974</v>
+        <v>6652</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5481967213114755</v>
+        <v>0.3977869039470682</v>
       </c>
       <c r="E77" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3827</v>
+        <v>6098</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>0.3345881816107689</v>
       </c>
       <c r="E78" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3935</v>
+        <v>6211</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5354098360655738</v>
+        <v>0.3474788957335159</v>
       </c>
       <c r="E79" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4137</v>
+        <v>7280</v>
       </c>
       <c r="D80" t="n">
-        <v>0.601639344262295</v>
+        <v>0.4694273328770249</v>
       </c>
       <c r="E80" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3170</v>
+        <v>5179</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2845901639344262</v>
+        <v>0.2297513118868355</v>
       </c>
       <c r="E81" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4614</v>
+        <v>8439</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7580327868852459</v>
+        <v>0.6016427104722792</v>
       </c>
       <c r="E82" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4028</v>
+        <v>6679</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5659016393442623</v>
+        <v>0.4008669860825919</v>
       </c>
       <c r="E83" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3441</v>
+        <v>5044</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3734426229508196</v>
+        <v>0.2143509012092174</v>
       </c>
       <c r="E84" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4014</v>
+        <v>7367</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5613114754098361</v>
+        <v>0.4793520419803787</v>
       </c>
       <c r="E85" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4700</v>
+        <v>8391</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7862295081967213</v>
+        <v>0.5961670088980151</v>
       </c>
       <c r="E86" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4627</v>
+        <v>8717</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.6333561487565594</v>
       </c>
       <c r="E87" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4307</v>
+        <v>7171</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6573770491803279</v>
+        <v>0.4569929272187999</v>
       </c>
       <c r="E88" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4546</v>
+        <v>8520</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7357377049180328</v>
+        <v>0.6108829568788501</v>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2789</v>
+        <v>3916</v>
       </c>
       <c r="D90" t="n">
-        <v>0.159672131147541</v>
+        <v>0.08567191421400867</v>
       </c>
       <c r="E90" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5008</v>
+        <v>10330</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8872131147540984</v>
+        <v>0.8173625370750628</v>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3814</v>
+        <v>6262</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4957377049180328</v>
+        <v>0.3532968286561716</v>
       </c>
       <c r="E92" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4763</v>
+        <v>7528</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8068852459016393</v>
+        <v>0.4977184576773899</v>
       </c>
       <c r="E93" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4036</v>
+        <v>7030</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5685245901639344</v>
+        <v>0.4409080538443988</v>
       </c>
       <c r="E94" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95">
@@ -2233,13 +2233,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5007</v>
+        <v>10070</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8868852459016393</v>
+        <v>0.7877024868811316</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5010</v>
+        <v>10421</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8878688524590164</v>
+        <v>0.8277435546429386</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3769</v>
+        <v>6850</v>
       </c>
       <c r="D97" t="n">
-        <v>0.480983606557377</v>
+        <v>0.4203741729409081</v>
       </c>
       <c r="E97" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98">
@@ -2290,10 +2290,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4154</v>
+        <v>7282</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6072131147540983</v>
+        <v>0.4696554871092859</v>
       </c>
       <c r="E98" t="n">
         <v>64</v>
@@ -2309,13 +2309,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2510</v>
+        <v>3926</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06819672131147542</v>
+        <v>0.08681268537531371</v>
       </c>
       <c r="E99" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3509</v>
+        <v>6056</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3957377049180328</v>
+        <v>0.3297969427332877</v>
       </c>
       <c r="E100" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101">
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4269</v>
+        <v>7691</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6449180327868852</v>
+        <v>0.5163130276066621</v>
       </c>
       <c r="E101" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
